--- a/data/trans_dic/IP31AA_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP31AA_R-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>33,12%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,58; 32,73</t>
+          <t>26,9; 38,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,45; 31,16</t>
+          <t>28,22; 39,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,52; 29,54</t>
+          <t>29,11; 37,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>26,01%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,9; 38,45</t>
+          <t>23,58; 32,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,22; 39,47</t>
+          <t>19,45; 31,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,11; 37,29</t>
+          <t>22,52; 29,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP31AA_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP31AA_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>61,95%</t>
+          <t>75,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>53,33%</t>
+          <t>62,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>57,88%</t>
+          <t>69,11%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>54,43; 68,63</t>
+          <t>64,56; 84,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,61; 61,28</t>
+          <t>51,2; 73,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,63; 63,09</t>
+          <t>61,06; 76,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>42,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>40,6%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,9; 38,45</t>
+          <t>33,57; 45,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,22; 39,47</t>
+          <t>36,28; 48,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,11; 37,29</t>
+          <t>36,37; 44,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>27,37%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,58; 32,73</t>
+          <t>24,43; 36,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,45; 31,16</t>
+          <t>18,66; 29,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,52; 29,54</t>
+          <t>23,43; 31,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>27,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>25,78%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,15; 37,8</t>
+          <t>22,03; 33,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,7; 34,93</t>
+          <t>18,42; 32,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,31; 35,46</t>
+          <t>21,66; 30,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>34,11%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>31,09%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30,97; 37,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>27,73; 35,5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30,33; 35,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/IP31AA_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP31AA_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,56; 84,74</t>
+          <t>64,88; 84,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51,2; 73,31</t>
+          <t>50,88; 73,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,06; 76,45</t>
+          <t>60,28; 75,81</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,57; 45,74</t>
+          <t>33,54; 45,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,28; 48,71</t>
+          <t>35,91; 48,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,37; 44,99</t>
+          <t>36,39; 44,82</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,43; 36,47</t>
+          <t>24,2; 36,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,66; 29,43</t>
+          <t>18,48; 29,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,43; 31,67</t>
+          <t>23,5; 31,58</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,03; 33,8</t>
+          <t>21,98; 33,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,42; 32,7</t>
+          <t>18,53; 33,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,66; 30,47</t>
+          <t>22,02; 31,05</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,97; 37,73</t>
+          <t>30,96; 37,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,73; 35,5</t>
+          <t>27,9; 34,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,33; 35,16</t>
+          <t>30,27; 35,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP31AA_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP31AA_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>75,56%</t>
+          <t>64,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>62,81%</t>
+          <t>75,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>69,97%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,88; 84,26</t>
+          <t>52,24; 74,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,88; 73,45</t>
+          <t>63,55; 84,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,28; 75,81</t>
+          <t>62,08; 77,13</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>41,46%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,54; 45,41</t>
+          <t>36,35; 48,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,91; 48,24</t>
+          <t>34,62; 46,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,39; 44,82</t>
+          <t>37,24; 45,86</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>27,73%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,2; 36,28</t>
+          <t>18,55; 29,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,48; 29,5</t>
+          <t>25,0; 36,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,5; 31,58</t>
+          <t>23,84; 32,29</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>29,42%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,98; 33,27</t>
+          <t>20,52; 54,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,53; 33,34</t>
+          <t>22,67; 35,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,02; 31,05</t>
+          <t>23,88; 40,25</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>34,48%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,96; 37,73</t>
+          <t>29,47; 44,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,9; 34,63</t>
+          <t>31,8; 38,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,27; 35,42</t>
+          <t>31,76; 39,5</t>
         </is>
       </c>
     </row>
